--- a/Pair trade_Time_series/data/same_sect.xlsx
+++ b/Pair trade_Time_series/data/same_sect.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">same_sect!$A$1:$L$301</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -852,7 +852,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -996,7 +996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,6 +1188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1350,15 +1356,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1682,10 +1692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:XFD290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4696,42 +4706,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="9">
         <v>-5.1890431696395103</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="9">
         <v>7.2864243592873194E-5</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="9">
         <v>-3.8994234037768898</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="9">
         <v>-3.3377935702514798</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="9">
         <v>-3.0456045836520098</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="8">
         <v>408</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="8">
         <v>453</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10936,42 +10946,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A238">
+    <row r="238" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="5">
         <v>-4.2885638340375101</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="5">
         <v>2.6675447488809E-3</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="5">
         <v>-3.8986449589286201</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="5">
         <v>-3.3373596726030201</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F238" s="5">
         <v>-3.0453034702784101</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="4">
         <v>194</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="4">
         <v>229</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J238" t="s">
+      <c r="J238" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K238" t="s">
-        <v>13</v>
-      </c>
-      <c r="L238" t="s">
+      <c r="K238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L238" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11092,42 +11102,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242">
+    <row r="242" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="5">
         <v>-4.2693793752080902</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="5">
         <v>2.8565683109446401E-3</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="5">
         <v>-3.8993597738430799</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="5">
         <v>-3.3377581080255601</v>
       </c>
-      <c r="F242" s="1">
+      <c r="F242" s="5">
         <v>-3.0455799745765701</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="4">
         <v>223</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="4">
         <v>290</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J242" t="s">
+      <c r="J242" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K242" t="s">
+      <c r="K242" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L242" t="s">
+      <c r="L242" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11443,42 +11453,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A251">
+    <row r="251" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="5">
         <v>-4.2249984336949398</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="5">
         <v>3.3420668287498299E-3</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="5">
         <v>-3.8985612524069202</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251" s="5">
         <v>-3.3373130082754598</v>
       </c>
-      <c r="F251" s="1">
+      <c r="F251" s="5">
         <v>-3.0452710852728502</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="4">
         <v>197</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="4">
         <v>285</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I251" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J251" t="s">
+      <c r="J251" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K251" t="s">
+      <c r="K251" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L251" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11560,42 +11570,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254">
+    <row r="254" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="3">
         <v>-4.2183205590824304</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="3">
         <v>3.4213548943934002E-3</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="3">
         <v>-3.8981926011842498</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="3">
         <v>-3.33710747782002</v>
       </c>
-      <c r="F254" s="1">
+      <c r="F254" s="3">
         <v>-3.0451284445074802</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="2">
         <v>207</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="2">
         <v>470</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K254" t="s">
+      <c r="K254" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L254" t="s">
+      <c r="L254" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11716,81 +11726,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A258">
+    <row r="258" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="3">
         <v>-4.2074056927142696</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="3">
         <v>3.5546755216103601E-3</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="3">
         <v>-3.8979615325484098</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="3">
         <v>-3.3369786387317402</v>
       </c>
-      <c r="F258" s="1">
+      <c r="F258" s="3">
         <v>-3.0450390262082001</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="2">
         <v>400</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="2">
         <v>419</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J258" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K258" t="s">
+      <c r="K258" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A259">
+    <row r="259" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="5">
         <v>-4.2068590891191704</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="5">
         <v>3.5614757308616899E-3</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="5">
         <v>-3.9027452691901101</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259" s="5">
         <v>-3.3396438053243398</v>
       </c>
-      <c r="F259" s="1">
+      <c r="F259" s="5">
         <v>-3.0468883696657398</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="4">
         <v>28</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="4">
         <v>453</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J259" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K259" t="s">
+      <c r="K259" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L259" t="s">
+      <c r="L259" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -11950,42 +11960,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264">
+    <row r="264" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="5">
         <v>-4.1914988698738096</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="5">
         <v>3.7575174400069902E-3</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="5">
         <v>-3.8985229258207199</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="5">
         <v>-3.3372916416844101</v>
       </c>
-      <c r="F264" s="1">
+      <c r="F264" s="5">
         <v>-3.0452562567975598</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="4">
         <v>0</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="4">
         <v>443</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J264" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="K264" t="s">
+      <c r="K264" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L264" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -12223,42 +12233,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271">
+    <row r="271" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="5">
         <v>-4.1757533643068303</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="5">
         <v>3.9686962528022798E-3</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="5">
         <v>-3.9016207921745498</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="5">
         <v>-3.33901772931365</v>
       </c>
-      <c r="F271" s="1">
+      <c r="F271" s="5">
         <v>-3.0464540079532498</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="4">
         <v>168</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="4">
         <v>280</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J271" t="s">
+      <c r="J271" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K271" t="s">
-        <v>13</v>
-      </c>
-      <c r="L271" t="s">
+      <c r="K271" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L271" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12925,7 +12935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -12964,46 +12974,55 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A290">
+    <row r="290" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="11">
         <v>-4.1414598698541703</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="11">
         <v>4.4667191873184802E-3</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="11">
         <v>-3.9023826121190801</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290" s="11">
         <v>-3.3394419155469501</v>
       </c>
-      <c r="F290" s="1">
+      <c r="F290" s="11">
         <v>-3.04674830631425</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="10">
         <v>69</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="10">
         <v>327</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I290" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J290" t="s">
+      <c r="J290" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="K290" t="s">
+      <c r="K290" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L290" t="s">
+      <c r="L290" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290" s="10">
+        <v>3</v>
+      </c>
+      <c r="N290" s="10">
+        <v>0</v>
+      </c>
+      <c r="O290" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -13042,7 +13061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -13081,7 +13100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -13120,7 +13139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -13159,7 +13178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -13198,7 +13217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -13237,7 +13256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -13276,7 +13295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -13315,7 +13334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -13354,7 +13373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -13393,7 +13412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>299</v>
